--- a/main_center/utils/download_template/Func_case.xlsx
+++ b/main_center/utils/download_template/Func_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15940" windowWidth="28240" xWindow="280" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9816" windowWidth="19200" xWindow="3096" yWindow="2076"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -371,10 +371,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">

--- a/main_center/utils/download_template/Func_case.xlsx
+++ b/main_center/utils/download_template/Func_case.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -438,6 +438,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sdf </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>fasd </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>asdf </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
